--- a/data_record/新增数据包/流中包的数量/数据统计_streamSize_10_2022_0821_2312.xlsx
+++ b/data_record/新增数据包/流中包的数量/数据统计_streamSize_10_2022_0821_2312.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seunic-my.sharepoint.cn/personal/220200718_seu_edu_cn/Documents/研一科研/main_project/Broker_continue/投稿相关/response相关/nhefrevise/data_record/新增数据包/流中包的数量/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_85C34109C4801702237607D3F4230B86E05271BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F05DB1E-23C1-4208-94C9-DC5A8A6E249D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_record" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>恶意程度</t>
   </si>
@@ -50,18 +67,45 @@
   </si>
   <si>
     <t>系统强度:1</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2r/(r2r+r2g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2r/(g2r+g2g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,15 +133,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -139,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +223,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +275,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,10 +513,19 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="B2">
         <v>4904</v>
@@ -436,18 +543,30 @@
         <v>5000</v>
       </c>
       <c r="G2">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H2">
         <v>0.25</v>
       </c>
       <c r="I2">
-        <v>0.982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K2">
+        <f>E2/(E2+D2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>C2/(C2+B2)</f>
+        <v>1.802162595114137E-2</v>
+      </c>
+      <c r="M2" t="e">
+        <f>_xlfn.NORM.S.INV(K2)-_xlfn.NORM.S.INV(L2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="B3">
         <v>4871</v>
@@ -468,13 +587,25 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="H3">
-        <v>0.5002297266374368</v>
+        <v>0.50022972663743681</v>
       </c>
       <c r="I3">
-        <v>0.9808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="0">E3/(E3+D3)</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="1">C3/(C3+B3)</f>
+        <v>1.9130084575110753E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="2">_xlfn.NORM.S.INV(K3)-_xlfn.NORM.S.INV(L3)</f>
+        <v>3.9615664953541154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -494,16 +625,28 @@
         <v>5000</v>
       </c>
       <c r="G4">
-        <v>0.8231578947368421</v>
+        <v>0.82315789473684209</v>
       </c>
       <c r="H4">
         <v>0.9070778312946346</v>
       </c>
       <c r="I4">
-        <v>0.9832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.99744897959183676</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1.8012152777777776E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>4.8971725870159295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.02</v>
       </c>
@@ -523,16 +666,28 @@
         <v>5000</v>
       </c>
       <c r="G5">
-        <v>0.8950777202072538</v>
+        <v>0.89507772020725385</v>
       </c>
       <c r="H5">
-        <v>0.945878038844827</v>
+        <v>0.94587803884482702</v>
       </c>
       <c r="I5">
-        <v>0.9838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.99567723342939485</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.8114259173246633E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>4.7201149718629196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.03</v>
       </c>
@@ -555,13 +710,25 @@
         <v>0.921875</v>
       </c>
       <c r="H6">
-        <v>0.9600701996756544</v>
+        <v>0.96007019967565443</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.99800995024875627</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2.0775969962453067E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>4.9177146182500771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.04</v>
       </c>
@@ -581,16 +748,28 @@
         <v>5000</v>
       </c>
       <c r="G7">
-        <v>0.9531024531024531</v>
+        <v>0.95310245310245312</v>
       </c>
       <c r="H7">
-        <v>0.9762696620823844</v>
+        <v>0.97626966208238442</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.7667844522968199E-2</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.05</v>
       </c>
@@ -610,16 +789,28 @@
         <v>5000</v>
       </c>
       <c r="G8">
-        <v>0.9639975170701428</v>
+        <v>0.96399751707014281</v>
       </c>
       <c r="H8">
-        <v>0.9818117764710276</v>
+        <v>0.98181177647102758</v>
       </c>
       <c r="I8">
-        <v>0.9883999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.99871382636655948</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.625544267053701E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>5.1527707963532148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.06</v>
       </c>
@@ -639,18 +830,30 @@
         <v>5000</v>
       </c>
       <c r="G9">
-        <v>0.9672219236969372</v>
+        <v>0.96722192369693716</v>
       </c>
       <c r="H9">
-        <v>0.9834488728508407</v>
+        <v>0.98344887285084071</v>
       </c>
       <c r="I9">
-        <v>0.9878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.99833610648918469</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.8142008132624336E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>5.0294463807524803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B10">
         <v>2866</v>
@@ -668,16 +871,28 @@
         <v>5000</v>
       </c>
       <c r="G10">
-        <v>0.9671977507029054</v>
+        <v>0.96719775070290537</v>
       </c>
       <c r="H10">
-        <v>0.9834396856280262</v>
+        <v>0.98343968562802619</v>
       </c>
       <c r="I10">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.99854862119013066</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.2843504943743608E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>4.9761259365777732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.08</v>
       </c>
@@ -697,16 +912,28 @@
         <v>5000</v>
       </c>
       <c r="G11">
-        <v>0.9732807709154621</v>
+        <v>0.97328077091546206</v>
       </c>
       <c r="H11">
         <v>0.9865178461077958</v>
       </c>
       <c r="I11">
-        <v>0.9878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.99730700179533216</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1.984126984126984E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>4.8400313474589307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.09</v>
       </c>
@@ -726,16 +953,28 @@
         <v>5000</v>
       </c>
       <c r="G12">
-        <v>0.9776820673453407</v>
+        <v>0.97768206734534069</v>
       </c>
       <c r="H12">
-        <v>0.9887655093387206</v>
+        <v>0.98876550933872065</v>
       </c>
       <c r="I12">
-        <v>0.9886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>5.0574435121273638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -755,31 +994,61 @@
         <v>5000</v>
       </c>
       <c r="G13">
-        <v>0.9769376181474481</v>
+        <v>0.97693761814744806</v>
       </c>
       <c r="H13">
-        <v>0.9883889656984396</v>
+        <v>0.98838896569843959</v>
       </c>
       <c r="I13">
-        <v>0.9878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.9988403556242752</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2.403646912556983E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>5.0226958221768738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <v>0.4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1.0949683367087144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>